--- a/check list.xlsx
+++ b/check list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fwd\projects\Mobile Testing faceBook App\Face Book Mobile Application Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fwd\projects\Mobile Testing faceBook App\Face Book Mobile Application Testing\Second commit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DCDDA-5A27-47C0-B086-7ED50044FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B5DFF-AF0D-480F-83EB-B65F85C0AAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="535">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -1799,6 +1799,15 @@
   <si>
     <t xml:space="preserve">1- go to application 
 2- go to profile page        3-press add post field     4-select live                   5- select privacy and control it                  </t>
+  </si>
+  <si>
+    <t>FR1 : Add Post</t>
+  </si>
+  <si>
+    <t>AddPost  : Positive TC [Test Suite]</t>
+  </si>
+  <si>
+    <t>AddPost  :Negative TC [Test Suite]</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2296,12 +2305,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2436,9 +2652,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2469,9 +2682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2516,9 +2726,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2544,6 +2751,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2553,10 +2800,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2566,6 +2813,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2598,52 +2851,107 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4890,12 +5198,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5160,7 +5468,7 @@
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="70" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5170,237 +5478,237 @@
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="71" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="128" t="s">
+      <c r="A58" s="34" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="71" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="71" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="71" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="71" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="71" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="71" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="71" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="71" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="71" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="71" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="71" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="71" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="71" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="71" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="71" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="71" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="71" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="71" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="71" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="71" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="71" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="73" t="s">
+      <c r="A82" s="71" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="71" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="71" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="71" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="73" t="s">
+      <c r="A86" s="71" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="71" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="73" t="s">
+      <c r="A88" s="71" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="71" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="73" t="s">
+      <c r="A90" s="71" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="73" t="s">
+      <c r="A91" s="71" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="71" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="73" t="s">
+      <c r="A93" s="71" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="73" t="s">
+      <c r="A94" s="71" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="73" t="s">
+      <c r="A95" s="71" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="73" t="s">
+      <c r="A96" s="71" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="71" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="73" t="s">
+      <c r="A98" s="71" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="71" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="73" t="s">
+      <c r="A100" s="71" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="73" t="s">
+      <c r="A101" s="71" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="74" t="s">
+      <c r="A102" s="72" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="73" t="s">
+      <c r="A103" s="71" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6423,8 +6731,8 @@
   </sheetPr>
   <dimension ref="A1:AB404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -6437,65 +6745,65 @@
     <col min="6" max="6" width="16" style="28" customWidth="1"/>
     <col min="7" max="7" width="22.375" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="94" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="91" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.375" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="93" customFormat="1" ht="55.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:28" s="90" customFormat="1" ht="55.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
     </row>
     <row r="2" spans="1:28" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6529,24 +6837,24 @@
       <c r="AA2" s="30"/>
       <c r="AB2" s="30"/>
     </row>
-    <row r="3" spans="1:28" ht="48.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:28" ht="48.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="109"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:28" s="27" customFormat="1" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="27" customFormat="1" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>64</v>
       </c>
@@ -6562,7 +6870,7 @@
       <c r="E4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="81"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="23" t="s">
         <v>308</v>
       </c>
@@ -6575,13 +6883,13 @@
       <c r="J4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:28" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>64</v>
       </c>
@@ -6610,12 +6918,12 @@
       <c r="J5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L5" s="81"/>
-    </row>
-    <row r="6" spans="1:28" ht="108" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="L5" s="79"/>
+    </row>
+    <row r="6" spans="1:28" ht="108" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>64</v>
       </c>
@@ -6644,12 +6952,12 @@
       <c r="J6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L6" s="81"/>
-    </row>
-    <row r="7" spans="1:28" ht="108" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="L6" s="79"/>
+    </row>
+    <row r="7" spans="1:28" ht="108" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
@@ -6678,12 +6986,12 @@
       <c r="J7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:28" ht="88.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="L7" s="79"/>
+    </row>
+    <row r="8" spans="1:28" ht="88.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>64</v>
       </c>
@@ -6712,73 +7020,73 @@
       <c r="J8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="95" t="s">
+      <c r="K8" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L8" s="81"/>
-    </row>
-    <row r="9" spans="1:28" ht="126" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="L8" s="79"/>
+    </row>
+    <row r="9" spans="1:28" ht="126" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A9" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="94" t="s">
         <v>304</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="116" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="116" t="s">
+      <c r="J9" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="L9" s="122"/>
-    </row>
-    <row r="10" spans="1:28" s="27" customFormat="1" ht="122.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="L9" s="99"/>
+    </row>
+    <row r="10" spans="1:28" s="27" customFormat="1" ht="122.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="101" t="s">
         <v>363</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="23" t="s">
         <v>358</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="I10" s="87" t="s">
+      <c r="I10" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="J10" s="127" t="s">
+      <c r="J10" s="102" t="s">
         <v>362</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="98" t="s">
         <v>309</v>
       </c>
       <c r="L10" s="14" t="s">
@@ -6786,20 +7094,20 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="57.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="110" t="s">
         <v>464</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
     </row>
     <row r="12" spans="1:28" ht="72" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
@@ -6830,10 +7138,10 @@
       <c r="J12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L12" s="81"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:28" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
@@ -6864,10 +7172,10 @@
       <c r="J13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="95" t="s">
+      <c r="K13" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L13" s="81"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:28" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
@@ -6898,10 +7206,10 @@
       <c r="J14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="95" t="s">
+      <c r="K14" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L14" s="81"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:28" ht="126" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -6929,10 +7237,10 @@
       <c r="I15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="129" t="s">
+      <c r="J15" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="92" t="s">
         <v>309</v>
       </c>
       <c r="L15" s="14" t="s">
@@ -6966,10 +7274,10 @@
       <c r="J16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="95" t="s">
+      <c r="K16" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L16" s="81"/>
+      <c r="L16" s="79"/>
     </row>
     <row r="17" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -6998,10 +7306,10 @@
       <c r="J17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="95" t="s">
+      <c r="K17" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L17" s="81"/>
+      <c r="L17" s="79"/>
     </row>
     <row r="18" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -7030,10 +7338,10 @@
       <c r="J18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L18" s="81"/>
+      <c r="L18" s="79"/>
     </row>
     <row r="19" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -7062,10 +7370,10 @@
       <c r="J19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="95" t="s">
+      <c r="K19" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="20" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -7094,10 +7402,10 @@
       <c r="J20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="95" t="s">
+      <c r="K20" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -7126,10 +7434,10 @@
       <c r="J21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="95" t="s">
+      <c r="K21" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="79"/>
     </row>
     <row r="22" spans="1:12" ht="126" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -7158,10 +7466,10 @@
       <c r="J22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="95" t="s">
+      <c r="K22" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L22" s="81"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="1:12" ht="144" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
@@ -7190,10 +7498,10 @@
       <c r="J23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="95" t="s">
+      <c r="K23" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L23" s="81"/>
+      <c r="L23" s="79"/>
     </row>
     <row r="24" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
@@ -7222,10 +7530,10 @@
       <c r="J24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="95" t="s">
+      <c r="K24" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L24" s="81"/>
+      <c r="L24" s="79"/>
     </row>
     <row r="25" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
@@ -7254,10 +7562,10 @@
       <c r="J25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="95" t="s">
+      <c r="K25" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L25" s="81"/>
+      <c r="L25" s="79"/>
     </row>
     <row r="26" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
@@ -7286,10 +7594,10 @@
       <c r="J26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="95" t="s">
+      <c r="K26" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L26" s="81"/>
+      <c r="L26" s="79"/>
     </row>
     <row r="27" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
@@ -7318,10 +7626,10 @@
       <c r="J27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="95" t="s">
+      <c r="K27" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L27" s="81"/>
+      <c r="L27" s="79"/>
     </row>
     <row r="28" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
@@ -7350,10 +7658,10 @@
       <c r="J28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L28" s="81"/>
+      <c r="L28" s="79"/>
     </row>
     <row r="29" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
@@ -7382,10 +7690,10 @@
       <c r="J29" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L29" s="81"/>
+      <c r="L29" s="79"/>
     </row>
     <row r="30" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
@@ -7414,74 +7722,74 @@
       <c r="J30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="95" t="s">
+      <c r="K30" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L30" s="81"/>
+      <c r="L30" s="79"/>
     </row>
     <row r="31" spans="1:12" ht="114.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="94" t="s">
         <v>400</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="116" t="s">
+      <c r="D31" s="95"/>
+      <c r="E31" s="93" t="s">
         <v>434</v>
       </c>
-      <c r="F31" s="119"/>
-      <c r="G31" s="116" t="s">
+      <c r="F31" s="96"/>
+      <c r="G31" s="93" t="s">
         <v>435</v>
       </c>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="93" t="s">
         <v>435</v>
       </c>
-      <c r="I31" s="120" t="s">
+      <c r="I31" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="116" t="s">
+      <c r="J31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="121" t="s">
+      <c r="K31" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="L31" s="122"/>
-    </row>
-    <row r="32" spans="1:12" s="62" customFormat="1" ht="114.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="L31" s="99"/>
+    </row>
+    <row r="32" spans="1:12" s="61" customFormat="1" ht="114.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A32" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="94" t="s">
         <v>401</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="106" t="s">
         <v>453</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="116" t="s">
+      <c r="D32" s="106"/>
+      <c r="E32" s="93" t="s">
         <v>455</v>
       </c>
-      <c r="F32" s="122"/>
-      <c r="G32" s="117" t="s">
+      <c r="F32" s="99"/>
+      <c r="G32" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="H32" s="117" t="s">
+      <c r="H32" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="I32" s="120" t="s">
+      <c r="I32" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="116" t="s">
+      <c r="J32" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="121" t="s">
+      <c r="K32" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="L32" s="122"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="1:12" s="27" customFormat="1" ht="126" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
@@ -7490,24 +7798,24 @@
       <c r="B33" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="100" t="s">
         <v>456</v>
       </c>
-      <c r="D33" s="125"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="F33" s="81"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="23" t="s">
         <v>458</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="I33" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="127" t="s">
+      <c r="J33" s="102" t="s">
         <v>119</v>
       </c>
       <c r="K33" s="23" t="s">
@@ -7544,10 +7852,10 @@
       <c r="J34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="95" t="s">
+      <c r="K34" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L34" s="81"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
@@ -7576,10 +7884,10 @@
       <c r="J35" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="95" t="s">
+      <c r="K35" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L35" s="81"/>
+      <c r="L35" s="79"/>
     </row>
     <row r="36" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
@@ -7608,10 +7916,10 @@
       <c r="J36" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K36" s="95" t="s">
+      <c r="K36" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L36" s="81"/>
+      <c r="L36" s="79"/>
     </row>
     <row r="37" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -7640,10 +7948,10 @@
       <c r="J37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="95" t="s">
+      <c r="K37" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L37" s="81"/>
+      <c r="L37" s="79"/>
     </row>
     <row r="38" spans="1:12" ht="102" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -7672,10 +7980,10 @@
       <c r="J38" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="95" t="s">
+      <c r="K38" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L38" s="81"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
@@ -7704,10 +8012,10 @@
       <c r="J39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K39" s="95" t="s">
+      <c r="K39" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L39" s="81"/>
+      <c r="L39" s="79"/>
     </row>
     <row r="40" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -7736,10 +8044,10 @@
       <c r="J40" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="95" t="s">
+      <c r="K40" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L40" s="81"/>
+      <c r="L40" s="79"/>
     </row>
     <row r="41" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
@@ -7768,10 +8076,10 @@
       <c r="J41" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="95" t="s">
+      <c r="K41" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L41" s="81"/>
+      <c r="L41" s="79"/>
     </row>
     <row r="42" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
@@ -7800,10 +8108,10 @@
       <c r="J42" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="95" t="s">
+      <c r="K42" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L42" s="81"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
@@ -7832,10 +8140,10 @@
       <c r="J43" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K43" s="95" t="s">
+      <c r="K43" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L43" s="81"/>
+      <c r="L43" s="79"/>
     </row>
     <row r="44" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
@@ -7864,28 +8172,28 @@
       <c r="J44" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="95" t="s">
+      <c r="K44" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L44" s="81"/>
-    </row>
-    <row r="45" spans="1:12" ht="57.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="123" t="s">
+      <c r="L44" s="79"/>
+    </row>
+    <row r="45" spans="1:12" ht="57.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="110" t="s">
         <v>505</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-    </row>
-    <row r="46" spans="1:12" ht="90" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+    </row>
+    <row r="46" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>192</v>
       </c>
@@ -7912,12 +8220,12 @@
       <c r="J46" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K46" s="95" t="s">
+      <c r="K46" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L46" s="81"/>
-    </row>
-    <row r="47" spans="1:12" ht="108" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L46" s="79"/>
+    </row>
+    <row r="47" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>192</v>
       </c>
@@ -7944,12 +8252,12 @@
       <c r="J47" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K47" s="95" t="s">
+      <c r="K47" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L47" s="81"/>
-    </row>
-    <row r="48" spans="1:12" ht="90" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="79"/>
+    </row>
+    <row r="48" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>192</v>
       </c>
@@ -7976,12 +8284,12 @@
       <c r="J48" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="95" t="s">
+      <c r="K48" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L48" s="81"/>
-    </row>
-    <row r="49" spans="1:12" ht="108" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="79"/>
+    </row>
+    <row r="49" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>192</v>
       </c>
@@ -8008,12 +8316,12 @@
       <c r="J49" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="95" t="s">
+      <c r="K49" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L49" s="81"/>
-    </row>
-    <row r="50" spans="1:12" ht="126" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="79"/>
+    </row>
+    <row r="50" spans="1:12" ht="126" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>192</v>
       </c>
@@ -8040,12 +8348,12 @@
       <c r="J50" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K50" s="95" t="s">
+      <c r="K50" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L50" s="81"/>
-    </row>
-    <row r="51" spans="1:12" ht="72" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="79"/>
+    </row>
+    <row r="51" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>192</v>
       </c>
@@ -8072,12 +8380,12 @@
       <c r="J51" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K51" s="95" t="s">
+      <c r="K51" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L51" s="81"/>
-    </row>
-    <row r="52" spans="1:12" ht="108" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="79"/>
+    </row>
+    <row r="52" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>192</v>
       </c>
@@ -8104,14 +8412,14 @@
       <c r="J52" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="95" t="s">
+      <c r="K52" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L52" s="81"/>
+      <c r="L52" s="79"/>
     </row>
     <row r="53" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
-      <c r="B53" s="88"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="14"/>
@@ -8120,8 +8428,8 @@
       <c r="H53" s="14"/>
       <c r="I53" s="15"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="81"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="79"/>
     </row>
     <row r="54" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
@@ -8134,8 +8442,8 @@
       <c r="H54" s="14"/>
       <c r="I54" s="15"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="81"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="79"/>
     </row>
     <row r="55" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
@@ -8148,8 +8456,8 @@
       <c r="H55" s="14"/>
       <c r="I55" s="15"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="81"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="79"/>
     </row>
     <row r="56" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
@@ -8162,8 +8470,8 @@
       <c r="H56" s="14"/>
       <c r="I56" s="15"/>
       <c r="J56" s="14"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="81"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="79"/>
     </row>
     <row r="57" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
@@ -8176,8 +8484,8 @@
       <c r="H57" s="14"/>
       <c r="I57" s="15"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="81"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="79"/>
     </row>
     <row r="58" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
@@ -8190,8 +8498,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="15"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="81"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="79"/>
     </row>
     <row r="59" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
@@ -8204,8 +8512,8 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
       <c r="J59" s="14"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="81"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="79"/>
     </row>
     <row r="60" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
@@ -8218,8 +8526,8 @@
       <c r="H60" s="14"/>
       <c r="I60" s="15"/>
       <c r="J60" s="14"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="81"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="79"/>
     </row>
     <row r="61" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
@@ -8232,8 +8540,8 @@
       <c r="H61" s="14"/>
       <c r="I61" s="15"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="95"/>
-      <c r="L61" s="81"/>
+      <c r="K61" s="92"/>
+      <c r="L61" s="79"/>
     </row>
     <row r="62" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
@@ -8246,8 +8554,8 @@
       <c r="H62" s="14"/>
       <c r="I62" s="15"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="81"/>
+      <c r="K62" s="92"/>
+      <c r="L62" s="79"/>
     </row>
     <row r="63" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
@@ -8260,8 +8568,8 @@
       <c r="H63" s="14"/>
       <c r="I63" s="15"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="81"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="79"/>
     </row>
     <row r="64" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
@@ -8274,8 +8582,8 @@
       <c r="H64" s="14"/>
       <c r="I64" s="15"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="81"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="79"/>
     </row>
     <row r="65" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
@@ -8288,8 +8596,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="15"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="95"/>
-      <c r="L65" s="81"/>
+      <c r="K65" s="92"/>
+      <c r="L65" s="79"/>
     </row>
     <row r="66" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
@@ -8302,8 +8610,8 @@
       <c r="H66" s="14"/>
       <c r="I66" s="15"/>
       <c r="J66" s="14"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="81"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="79"/>
     </row>
     <row r="67" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
@@ -8316,8 +8624,8 @@
       <c r="H67" s="14"/>
       <c r="I67" s="15"/>
       <c r="J67" s="14"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="81"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="79"/>
     </row>
     <row r="68" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
@@ -8330,8 +8638,8 @@
       <c r="H68" s="14"/>
       <c r="I68" s="15"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="81"/>
+      <c r="K68" s="92"/>
+      <c r="L68" s="79"/>
     </row>
     <row r="69" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -9381,59 +9689,59 @@
     <col min="12" max="12" width="34.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="68" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:28" s="67" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
     </row>
     <row r="2" spans="1:28" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9468,20 +9776,20 @@
       <c r="AB2" s="30"/>
     </row>
     <row r="3" spans="1:28" ht="48.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="109"/>
       <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:28" s="27" customFormat="1" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -9513,7 +9821,7 @@
       <c r="J4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>83</v>
       </c>
       <c r="L4" s="25"/>
@@ -9548,10 +9856,10 @@
       <c r="J5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="81"/>
+      <c r="L5" s="79"/>
     </row>
     <row r="6" spans="1:28" ht="108" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
@@ -9582,10 +9890,10 @@
       <c r="J6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="81"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:28" ht="108" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -9616,10 +9924,10 @@
       <c r="J7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:28" ht="88.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
@@ -9650,10 +9958,10 @@
       <c r="J8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="81"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:28" ht="106.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -9684,42 +9992,42 @@
       <c r="J9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="81"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:28" ht="57.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
     </row>
     <row r="11" spans="1:28" ht="48.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:28" ht="88.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
@@ -9750,10 +10058,10 @@
       <c r="J12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="81"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:28" ht="54" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
@@ -9784,10 +10092,10 @@
       <c r="J13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="81"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:28" ht="72" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
@@ -9818,10 +10126,10 @@
       <c r="J14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="79" t="s">
+      <c r="K14" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="81"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:28" ht="72" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -9852,10 +10160,10 @@
       <c r="J15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="79" t="s">
+      <c r="K15" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="81"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:28" ht="90" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
@@ -9886,7 +10194,7 @@
       <c r="J16" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="79" t="s">
+      <c r="K16" s="77" t="s">
         <v>110</v>
       </c>
       <c r="L16" s="23" t="s">
@@ -9922,10 +10230,10 @@
       <c r="J17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="79" t="s">
+      <c r="K17" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="81"/>
+      <c r="L17" s="79"/>
     </row>
     <row r="18" spans="1:12" ht="54" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -9956,10 +10264,10 @@
       <c r="J18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K18" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L18" s="81"/>
+      <c r="L18" s="79"/>
     </row>
     <row r="19" spans="1:12" ht="90" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -9990,10 +10298,10 @@
       <c r="J19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="20" spans="1:12" ht="108" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -10024,10 +10332,10 @@
       <c r="J20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="79" t="s">
+      <c r="K20" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="1:12" ht="108" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -10058,7 +10366,7 @@
       <c r="J21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="79" t="s">
+      <c r="K21" s="77" t="s">
         <v>124</v>
       </c>
       <c r="L21" s="23" t="s">
@@ -10094,10 +10402,10 @@
       <c r="J22" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="79" t="s">
+      <c r="K22" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="81"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="1:12" ht="72" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
@@ -10128,7 +10436,7 @@
       <c r="J23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="79" t="s">
+      <c r="K23" s="77" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10161,7 +10469,7 @@
       <c r="J24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="79" t="s">
+      <c r="K24" s="77" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10194,7 +10502,7 @@
       <c r="J25" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="79" t="s">
+      <c r="K25" s="77" t="s">
         <v>145</v>
       </c>
       <c r="L25" s="23" t="s">
@@ -10202,19 +10510,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="60.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="103"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
     </row>
     <row r="27" spans="1:12" ht="126" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
@@ -10245,7 +10553,7 @@
       <c r="J27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="79" t="s">
+      <c r="K27" s="77" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10278,7 +10586,7 @@
       <c r="J28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="79" t="s">
+      <c r="K28" s="77" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10311,7 +10619,7 @@
       <c r="J29" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="77" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10341,10 +10649,10 @@
       <c r="I30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="77" t="s">
         <v>160</v>
       </c>
       <c r="L30" s="23" t="s">
@@ -10352,20 +10660,20 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="108.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
     </row>
     <row r="32" spans="1:12" ht="88.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
@@ -10396,10 +10704,10 @@
       <c r="J32" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K32" s="78" t="s">
+      <c r="K32" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="81"/>
+      <c r="L32" s="79"/>
     </row>
     <row r="33" spans="1:12" ht="54" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
@@ -10430,10 +10738,10 @@
       <c r="J33" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="L33" s="81"/>
+      <c r="L33" s="79"/>
     </row>
     <row r="34" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
@@ -10464,10 +10772,10 @@
       <c r="J34" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="79" t="s">
+      <c r="K34" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="81"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
@@ -10498,10 +10806,10 @@
       <c r="J35" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K35" s="79" t="s">
+      <c r="K35" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L35" s="81"/>
+      <c r="L35" s="79"/>
     </row>
     <row r="36" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
@@ -10532,10 +10840,10 @@
       <c r="J36" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K36" s="79" t="s">
+      <c r="K36" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="81"/>
+      <c r="L36" s="79"/>
     </row>
     <row r="37" spans="1:12" ht="54" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
@@ -10566,10 +10874,10 @@
       <c r="J37" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="K37" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L37" s="81"/>
+      <c r="L37" s="79"/>
     </row>
     <row r="38" spans="1:12" ht="90" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
@@ -10600,10 +10908,10 @@
       <c r="J38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K38" s="79" t="s">
+      <c r="K38" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L38" s="81"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="1:12" ht="108" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
@@ -10634,10 +10942,10 @@
       <c r="J39" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="79" t="s">
+      <c r="K39" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="L39" s="81"/>
+      <c r="L39" s="79"/>
     </row>
     <row r="40" spans="1:12" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
@@ -10668,10 +10976,10 @@
       <c r="J40" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K40" s="79" t="s">
+      <c r="K40" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="L40" s="81"/>
+      <c r="L40" s="79"/>
     </row>
     <row r="41" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
@@ -10702,7 +11010,7 @@
       <c r="J41" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K41" s="79" t="s">
+      <c r="K41" s="77" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10735,7 +11043,7 @@
       <c r="J42" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K42" s="79" t="s">
+      <c r="K42" s="77" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10768,7 +11076,7 @@
       <c r="J43" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K43" s="79" t="s">
+      <c r="K43" s="77" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10801,7 +11109,7 @@
       <c r="J44" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K44" s="79" t="s">
+      <c r="K44" s="77" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10834,7 +11142,7 @@
       <c r="J45" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K45" s="79" t="s">
+      <c r="K45" s="77" t="s">
         <v>160</v>
       </c>
     </row>
@@ -16203,8 +16511,8 @@
   </sheetPr>
   <dimension ref="A1:AB383"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -16226,50 +16534,50 @@
     <col min="15" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="40" customFormat="1" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:28" s="40" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="61"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="39"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="39"/>
@@ -16285,43 +16593,43 @@
       <c r="AB1" s="39"/>
     </row>
     <row r="2" spans="1:28" s="42" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="57"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
@@ -16340,22 +16648,22 @@
       <c r="A3" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="69" t="s">
         <v>250</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="69" t="s">
         <v>251</v>
       </c>
       <c r="H3" s="14" t="s">
@@ -16377,28 +16685,28 @@
       <c r="N3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="57"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:28" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="69" t="s">
         <v>250</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="69" t="s">
         <v>259</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -16420,28 +16728,28 @@
       <c r="N4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="57"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:28" ht="270" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="69" t="s">
         <v>250</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="69" t="s">
         <v>259</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -16463,19 +16771,19 @@
       <c r="N5" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="O5" s="57"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:28" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="69" t="s">
         <v>250</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -16506,7 +16814,7 @@
       <c r="N6" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="O6" s="57"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:28" ht="108" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -16518,7 +16826,7 @@
       <c r="C7" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="69" t="s">
         <v>250</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -16549,7 +16857,7 @@
       <c r="N7" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="O7" s="57"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:28" s="3" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -16558,31 +16866,31 @@
       <c r="B8" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="93" t="s">
         <v>450</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="69" t="s">
         <v>250</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="93" t="s">
         <v>452</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="I8" s="116" t="s">
+      <c r="I8" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="116"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="14" t="s">
         <v>233</v>
       </c>
@@ -16592,19 +16900,19 @@
       <c r="N8" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="O8" s="130"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -16616,10 +16924,10 @@
       <c r="C9" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="93" t="s">
         <v>457</v>
       </c>
       <c r="F9" s="23" t="s">
@@ -16650,242 +16958,242 @@
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:28" ht="89.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:28" ht="89.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
     </row>
     <row r="19" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
     </row>
     <row r="21" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
     </row>
     <row r="22" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44"/>
@@ -18463,10 +18771,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB383"/>
+  <dimension ref="A1:AB493"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -18475,7 +18783,7 @@
     <col min="2" max="2" width="21.25" style="27" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="27" customWidth="1"/>
     <col min="4" max="4" width="19" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="68" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="27" customWidth="1"/>
     <col min="7" max="7" width="22.375" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="27" bestFit="1" customWidth="1"/>
@@ -18487,14 +18795,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="42" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="137"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
@@ -18519,16 +18827,16 @@
       <c r="AB1" s="41"/>
     </row>
     <row r="2" spans="1:28" s="42" customFormat="1" ht="35.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="124" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
       <c r="I2" s="54"/>
@@ -18553,16 +18861,16 @@
       <c r="AB2" s="41"/>
     </row>
     <row r="3" spans="1:28" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -18571,12 +18879,12 @@
       <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
       <c r="I4" s="46"/>
@@ -18585,22 +18893,22 @@
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:28" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="140" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="48"/>
@@ -18612,17 +18920,17 @@
       <c r="A6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="128" t="s">
         <v>246</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="87" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="134"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="44"/>
@@ -18634,15 +18942,15 @@
       <c r="A7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="128"/>
+      <c r="E7" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
       <c r="I7" s="44"/>
@@ -18654,15 +18962,15 @@
       <c r="A8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="115"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="87" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
@@ -18674,15 +18982,15 @@
       <c r="A9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="87" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="134"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
@@ -18694,15 +19002,15 @@
       <c r="A10" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="128"/>
+      <c r="E10" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
@@ -18714,15 +19022,15 @@
       <c r="A11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="115"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="87" t="s">
+      <c r="D11" s="128"/>
+      <c r="E11" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -18734,17 +19042,17 @@
       <c r="A12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="120" t="s">
         <v>248</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="87" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="134"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -18756,15 +19064,15 @@
       <c r="A13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="87" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="134"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
@@ -18776,15 +19084,15 @@
       <c r="A14" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="107"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="87" t="s">
+      <c r="D14" s="85"/>
+      <c r="E14" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
@@ -18796,15 +19104,15 @@
       <c r="A15" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="107"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="47"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
@@ -18816,17 +19124,17 @@
       <c r="A16" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="107"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="23" t="s">
         <v>112</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="134"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
@@ -18838,15 +19146,15 @@
       <c r="A17" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="107"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="87" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -18858,15 +19166,15 @@
       <c r="A18" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="23" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="49"/>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
@@ -18878,15 +19186,15 @@
       <c r="A19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="107"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="23" t="s">
         <v>125</v>
       </c>
       <c r="D19" s="49"/>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -18898,15 +19206,15 @@
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="107"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="23" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="49"/>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="134"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
@@ -18918,17 +19226,17 @@
       <c r="A21" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="107"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="23" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
@@ -18940,15 +19248,15 @@
       <c r="A22" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="107"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="23" t="s">
         <v>138</v>
       </c>
       <c r="D22" s="49"/>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="134"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -18960,15 +19268,15 @@
       <c r="A23" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="23" t="s">
         <v>142</v>
       </c>
       <c r="D23" s="49"/>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F23" s="47"/>
+      <c r="F23" s="134"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
@@ -18980,15 +19288,15 @@
       <c r="A24" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="107"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="23" t="s">
         <v>148</v>
       </c>
       <c r="D24" s="49"/>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
@@ -19000,17 +19308,17 @@
       <c r="A25" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="107"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="23" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
@@ -19022,17 +19330,17 @@
       <c r="A26" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="121" t="s">
         <v>307</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>150</v>
       </c>
       <c r="D26" s="47"/>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="134"/>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -19044,15 +19352,15 @@
       <c r="A27" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="108"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="23" t="s">
         <v>155</v>
       </c>
       <c r="D27" s="49"/>
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
@@ -19064,15 +19372,15 @@
       <c r="A28" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="108"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="23" t="s">
         <v>161</v>
       </c>
       <c r="D28" s="49"/>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="47"/>
+      <c r="F28" s="134"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
@@ -19084,17 +19392,17 @@
       <c r="A29" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="108"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="23" t="s">
         <v>165</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
@@ -19102,13 +19410,19 @@
       <c r="K29" s="44"/>
       <c r="L29" s="50"/>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="49"/>
+    <row r="30" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" s="49"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="134"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
@@ -19116,13 +19430,17 @@
       <c r="K30" s="44"/>
       <c r="L30" s="50"/>
     </row>
-    <row r="31" spans="1:12" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+    <row r="31" spans="1:12" ht="36" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B31" s="131"/>
+      <c r="C31" s="23" t="s">
+        <v>300</v>
+      </c>
       <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -19131,12 +19449,16 @@
       <c r="L31" s="55"/>
     </row>
     <row r="32" spans="1:12" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B32" s="131"/>
+      <c r="C32" s="23" t="s">
+        <v>301</v>
+      </c>
       <c r="D32" s="49"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="47"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="134"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
@@ -19144,13 +19466,17 @@
       <c r="K32" s="44"/>
       <c r="L32" s="47"/>
     </row>
-    <row r="33" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="49"/>
+    <row r="33" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B33" s="131"/>
+      <c r="C33" s="23" t="s">
+        <v>302</v>
+      </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="47"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="134"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
@@ -19158,13 +19484,17 @@
       <c r="K33" s="44"/>
       <c r="L33" s="47"/>
     </row>
-    <row r="34" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="49"/>
+    <row r="34" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B34" s="131"/>
+      <c r="C34" s="23" t="s">
+        <v>303</v>
+      </c>
       <c r="D34" s="49"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="47"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="134"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
@@ -19172,13 +19502,17 @@
       <c r="K34" s="44"/>
       <c r="L34" s="47"/>
     </row>
-    <row r="35" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="49"/>
+    <row r="35" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B35" s="131"/>
+      <c r="C35" s="94" t="s">
+        <v>304</v>
+      </c>
       <c r="D35" s="49"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="47"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="134"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
@@ -19186,13 +19520,17 @@
       <c r="K35" s="44"/>
       <c r="L35" s="47"/>
     </row>
-    <row r="36" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="49"/>
+    <row r="36" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B36" s="131"/>
+      <c r="C36" s="23" t="s">
+        <v>357</v>
+      </c>
       <c r="D36" s="49"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="134"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
@@ -19200,13 +19538,15 @@
       <c r="K36" s="44"/>
       <c r="L36" s="47"/>
     </row>
-    <row r="37" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="49"/>
+    <row r="37" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B37" s="131"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="49"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="47"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="134"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
@@ -19214,13 +19554,15 @@
       <c r="K37" s="44"/>
       <c r="L37" s="47"/>
     </row>
-    <row r="38" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="49"/>
+    <row r="38" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B38" s="131"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="49"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="47"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="134"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -19228,13 +19570,15 @@
       <c r="K38" s="44"/>
       <c r="L38" s="47"/>
     </row>
-    <row r="39" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="49"/>
+    <row r="39" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B39" s="131"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="49"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="47"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="134"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
@@ -19243,12 +19587,14 @@
       <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" s="131"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="49"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="47"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="134"/>
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
@@ -19256,13 +19602,15 @@
       <c r="K40" s="44"/>
       <c r="L40" s="47"/>
     </row>
-    <row r="41" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="49"/>
+    <row r="41" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B41" s="131"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="49"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="47"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="134"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
@@ -19270,13 +19618,15 @@
       <c r="K41" s="44"/>
       <c r="L41" s="50"/>
     </row>
-    <row r="42" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="49"/>
+    <row r="42" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B42" s="131"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="49"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="47"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="134"/>
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
@@ -19284,13 +19634,15 @@
       <c r="K42" s="44"/>
       <c r="L42" s="50"/>
     </row>
-    <row r="43" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="49"/>
+    <row r="43" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B43" s="131"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="49"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="47"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="134"/>
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
@@ -19298,13 +19650,15 @@
       <c r="K43" s="44"/>
       <c r="L43" s="50"/>
     </row>
-    <row r="44" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="49"/>
+    <row r="44" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="131"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="49"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="47"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="134"/>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
@@ -19312,13 +19666,15 @@
       <c r="K44" s="44"/>
       <c r="L44" s="50"/>
     </row>
-    <row r="45" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="49"/>
+    <row r="45" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B45" s="131"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="49"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="47"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="134"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -19326,13 +19682,17 @@
       <c r="K45" s="44"/>
       <c r="L45" s="50"/>
     </row>
-    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
+    <row r="46" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B46" s="131"/>
+      <c r="C46" s="23" t="s">
+        <v>301</v>
+      </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="50"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="136"/>
       <c r="G46" s="50"/>
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
@@ -19340,13 +19700,17 @@
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
     </row>
-    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B47" s="131"/>
+      <c r="C47" s="23" t="s">
+        <v>302</v>
+      </c>
       <c r="D47" s="50"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="50"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="136"/>
       <c r="G47" s="50"/>
       <c r="H47" s="50"/>
       <c r="I47" s="50"/>
@@ -19354,13 +19718,17 @@
       <c r="K47" s="50"/>
       <c r="L47" s="50"/>
     </row>
-    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
+    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A48" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B48" s="131"/>
+      <c r="C48" s="23" t="s">
+        <v>303</v>
+      </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="50"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="50"/>
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
@@ -19368,13 +19736,17 @@
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
     </row>
-    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
+    <row r="49" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A49" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B49" s="131"/>
+      <c r="C49" s="94" t="s">
+        <v>304</v>
+      </c>
       <c r="D49" s="50"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="50"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
@@ -19382,13 +19754,21 @@
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
     </row>
-    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="50"/>
+    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A50" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B50" s="132"/>
+      <c r="C50" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E50" s="144" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="136"/>
       <c r="G50" s="50"/>
       <c r="H50" s="50"/>
       <c r="I50" s="50"/>
@@ -19396,13 +19776,19 @@
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
     </row>
-    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
+    <row r="51" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A51" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B51" s="148" t="s">
+        <v>533</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>321</v>
+      </c>
       <c r="D51" s="50"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="50"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="136"/>
       <c r="G51" s="50"/>
       <c r="H51" s="50"/>
       <c r="I51" s="50"/>
@@ -19410,13 +19796,17 @@
       <c r="K51" s="50"/>
       <c r="L51" s="50"/>
     </row>
-    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
+    <row r="52" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A52" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B52" s="149"/>
+      <c r="C52" s="23" t="s">
+        <v>322</v>
+      </c>
       <c r="D52" s="50"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="50"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="136"/>
       <c r="G52" s="50"/>
       <c r="H52" s="50"/>
       <c r="I52" s="50"/>
@@ -19424,13 +19814,17 @@
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
     </row>
-    <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
+    <row r="53" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A53" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B53" s="149"/>
+      <c r="C53" s="23" t="s">
+        <v>323</v>
+      </c>
       <c r="D53" s="50"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="50"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="50"/>
       <c r="H53" s="50"/>
       <c r="I53" s="50"/>
@@ -19438,13 +19832,21 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
     </row>
-    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="50"/>
+    <row r="54" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A54" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B54" s="149"/>
+      <c r="C54" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E54" s="144" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="136"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
       <c r="I54" s="50"/>
@@ -19452,13 +19854,17 @@
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
     </row>
-    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
+    <row r="55" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A55" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B55" s="149"/>
+      <c r="C55" s="23" t="s">
+        <v>325</v>
+      </c>
       <c r="D55" s="50"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="50"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="136"/>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
@@ -19466,13 +19872,17 @@
       <c r="K55" s="50"/>
       <c r="L55" s="50"/>
     </row>
-    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
+    <row r="56" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A56" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B56" s="149"/>
+      <c r="C56" s="23" t="s">
+        <v>326</v>
+      </c>
       <c r="D56" s="50"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="50"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="136"/>
       <c r="G56" s="50"/>
       <c r="H56" s="50"/>
       <c r="I56" s="50"/>
@@ -19480,13 +19890,17 @@
       <c r="K56" s="50"/>
       <c r="L56" s="50"/>
     </row>
-    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
+    <row r="57" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A57" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B57" s="149"/>
+      <c r="C57" s="23" t="s">
+        <v>327</v>
+      </c>
       <c r="D57" s="50"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="50"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="136"/>
       <c r="G57" s="50"/>
       <c r="H57" s="50"/>
       <c r="I57" s="50"/>
@@ -19494,13 +19908,17 @@
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
     </row>
-    <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
+    <row r="58" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A58" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B58" s="149"/>
+      <c r="C58" s="23" t="s">
+        <v>385</v>
+      </c>
       <c r="D58" s="50"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="50"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="136"/>
       <c r="G58" s="50"/>
       <c r="H58" s="50"/>
       <c r="I58" s="50"/>
@@ -19508,13 +19926,17 @@
       <c r="K58" s="50"/>
       <c r="L58" s="50"/>
     </row>
-    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
+    <row r="59" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A59" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B59" s="149"/>
+      <c r="C59" s="23" t="s">
+        <v>386</v>
+      </c>
       <c r="D59" s="50"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="50"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="136"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
@@ -19522,13 +19944,17 @@
       <c r="K59" s="50"/>
       <c r="L59" s="50"/>
     </row>
-    <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
+    <row r="60" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A60" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B60" s="149"/>
+      <c r="C60" s="23" t="s">
+        <v>390</v>
+      </c>
       <c r="D60" s="50"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="50"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="136"/>
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
       <c r="I60" s="50"/>
@@ -19536,13 +19962,17 @@
       <c r="K60" s="50"/>
       <c r="L60" s="50"/>
     </row>
-    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
+    <row r="61" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A61" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B61" s="149"/>
+      <c r="C61" s="23" t="s">
+        <v>391</v>
+      </c>
       <c r="D61" s="50"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="50"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="136"/>
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
@@ -19550,13 +19980,17 @@
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
     </row>
-    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
+    <row r="62" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A62" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B62" s="149"/>
+      <c r="C62" s="23" t="s">
+        <v>392</v>
+      </c>
       <c r="D62" s="50"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="50"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="136"/>
       <c r="G62" s="50"/>
       <c r="H62" s="50"/>
       <c r="I62" s="50"/>
@@ -19564,13 +19998,17 @@
       <c r="K62" s="50"/>
       <c r="L62" s="50"/>
     </row>
-    <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
+    <row r="63" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A63" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B63" s="149"/>
+      <c r="C63" s="23" t="s">
+        <v>393</v>
+      </c>
       <c r="D63" s="50"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="50"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="136"/>
       <c r="G63" s="50"/>
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
@@ -19578,13 +20016,17 @@
       <c r="K63" s="50"/>
       <c r="L63" s="50"/>
     </row>
-    <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
+    <row r="64" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A64" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B64" s="149"/>
+      <c r="C64" s="23" t="s">
+        <v>394</v>
+      </c>
       <c r="D64" s="50"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="50"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="136"/>
       <c r="G64" s="50"/>
       <c r="H64" s="50"/>
       <c r="I64" s="50"/>
@@ -19592,13 +20034,17 @@
       <c r="K64" s="50"/>
       <c r="L64" s="50"/>
     </row>
-    <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
+    <row r="65" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A65" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B65" s="149"/>
+      <c r="C65" s="23" t="s">
+        <v>395</v>
+      </c>
       <c r="D65" s="50"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="50"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="136"/>
       <c r="G65" s="50"/>
       <c r="H65" s="50"/>
       <c r="I65" s="50"/>
@@ -19606,13 +20052,17 @@
       <c r="K65" s="50"/>
       <c r="L65" s="50"/>
     </row>
-    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
+    <row r="66" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A66" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B66" s="149"/>
+      <c r="C66" s="23" t="s">
+        <v>396</v>
+      </c>
       <c r="D66" s="50"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="50"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="136"/>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
       <c r="I66" s="50"/>
@@ -19620,13 +20070,17 @@
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
     </row>
-    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
+    <row r="67" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A67" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67" s="149"/>
+      <c r="C67" s="23" t="s">
+        <v>397</v>
+      </c>
       <c r="D67" s="50"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="50"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="136"/>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50"/>
@@ -19634,956 +20088,2183 @@
       <c r="K67" s="50"/>
       <c r="L67" s="50"/>
     </row>
-    <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A68" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B68" s="149"/>
+      <c r="C68" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" s="156"/>
+      <c r="F68" s="36"/>
+    </row>
+    <row r="69" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A69" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B69" s="149"/>
+      <c r="C69" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="E69" s="156"/>
+      <c r="F69" s="36"/>
+    </row>
+    <row r="70" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A70" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B70" s="149"/>
+      <c r="C70" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="E70" s="156"/>
+      <c r="F70" s="36"/>
+    </row>
+    <row r="71" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A71" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B71" s="149"/>
+      <c r="C71" s="94" t="s">
+        <v>401</v>
+      </c>
+      <c r="E71" s="156"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="152"/>
+    </row>
+    <row r="72" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B72" s="149"/>
+      <c r="C72" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E72" s="156" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" s="154"/>
+    </row>
+    <row r="73" spans="1:12" ht="54.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B73" s="149"/>
+      <c r="C73" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E73" s="156"/>
+      <c r="F73" s="155"/>
+    </row>
+    <row r="74" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A74" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B74" s="149"/>
+      <c r="C74" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E74" s="156"/>
+      <c r="F74" s="36"/>
+    </row>
+    <row r="75" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A75" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B75" s="149"/>
+      <c r="C75" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E75" s="156"/>
+      <c r="F75" s="36"/>
+    </row>
+    <row r="76" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A76" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B76" s="149"/>
+      <c r="C76" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E76" s="156"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A77" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B77" s="149"/>
+      <c r="C77" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="E77" s="156"/>
+      <c r="F77" s="36"/>
+    </row>
+    <row r="78" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A78" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B78" s="149"/>
+      <c r="C78" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" s="156"/>
+      <c r="F78" s="36"/>
+    </row>
+    <row r="79" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A79" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B79" s="149"/>
+      <c r="C79" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E79" s="156"/>
+      <c r="F79" s="36"/>
+    </row>
+    <row r="80" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A80" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B80" s="149"/>
+      <c r="C80" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E80" s="156"/>
+      <c r="F80" s="36"/>
+    </row>
+    <row r="81" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A81" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B81" s="149"/>
+      <c r="C81" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E81" s="156"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A82" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B82" s="149"/>
+      <c r="C82" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E82" s="156"/>
+      <c r="F82" s="36"/>
+    </row>
+    <row r="83" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="157" t="s">
+        <v>532</v>
+      </c>
+      <c r="B83" s="149"/>
+      <c r="C83" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="D83" s="61"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="36"/>
+    </row>
+    <row r="84" spans="1:6" ht="54.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="161" t="s">
+        <v>532</v>
+      </c>
+      <c r="B84" s="162" t="s">
+        <v>534</v>
+      </c>
+      <c r="C84" s="163" t="s">
+        <v>465</v>
+      </c>
+      <c r="D84" s="164"/>
+      <c r="E84" s="165"/>
+      <c r="F84" s="36"/>
+    </row>
+    <row r="85" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A85" s="166" t="s">
+        <v>532</v>
+      </c>
+      <c r="B85" s="129"/>
+      <c r="C85" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="E85" s="156"/>
+      <c r="F85" s="36"/>
+    </row>
+    <row r="86" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A86" s="166" t="s">
+        <v>532</v>
+      </c>
+      <c r="B86" s="129"/>
+      <c r="C86" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E86" s="156"/>
+      <c r="F86" s="36"/>
+    </row>
+    <row r="87" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A87" s="166" t="s">
+        <v>532</v>
+      </c>
+      <c r="B87" s="129"/>
+      <c r="C87" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="E87" s="156"/>
+      <c r="F87" s="36"/>
+    </row>
+    <row r="88" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A88" s="166" t="s">
+        <v>532</v>
+      </c>
+      <c r="B88" s="129"/>
+      <c r="C88" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E88" s="156"/>
+      <c r="F88" s="36"/>
+    </row>
+    <row r="89" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A89" s="166" t="s">
+        <v>532</v>
+      </c>
+      <c r="B89" s="129"/>
+      <c r="C89" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="E89" s="156"/>
+      <c r="F89" s="36"/>
+    </row>
+    <row r="90" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="167" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="168"/>
+      <c r="C90" s="169" t="s">
+        <v>471</v>
+      </c>
+      <c r="D90" s="151"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="36"/>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="159"/>
+      <c r="B91" s="150"/>
+      <c r="C91" s="150"/>
+      <c r="D91" s="150"/>
+      <c r="E91" s="160"/>
+      <c r="F91" s="36"/>
+    </row>
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E92" s="156"/>
+      <c r="F92" s="36"/>
+    </row>
+    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E93" s="156"/>
+      <c r="F93" s="36"/>
+    </row>
+    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E94" s="156"/>
+      <c r="F94" s="36"/>
+    </row>
+    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E95" s="156"/>
+      <c r="F95" s="36"/>
+    </row>
+    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E96" s="156"/>
+      <c r="F96" s="36"/>
+    </row>
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E97" s="156"/>
+      <c r="F97" s="36"/>
+    </row>
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E98" s="156"/>
+      <c r="F98" s="36"/>
+    </row>
+    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-    </row>
-    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E99" s="156"/>
+      <c r="F99" s="36"/>
+    </row>
+    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E100" s="156"/>
+      <c r="F100" s="36"/>
+    </row>
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-    </row>
-    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E101" s="156"/>
+      <c r="F101" s="36"/>
+    </row>
+    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-    </row>
-    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E102" s="156"/>
+      <c r="F102" s="36"/>
+    </row>
+    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-    </row>
-    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E103" s="156"/>
+      <c r="F103" s="36"/>
+    </row>
+    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-    </row>
-    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E104" s="156"/>
+      <c r="F104" s="36"/>
+    </row>
+    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-    </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E105" s="156"/>
+      <c r="F105" s="36"/>
+    </row>
+    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-    </row>
-    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E106" s="156"/>
+      <c r="F106" s="36"/>
+    </row>
+    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-    </row>
-    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E107" s="156"/>
+      <c r="F107" s="36"/>
+    </row>
+    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-    </row>
-    <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E108" s="156"/>
+      <c r="F108" s="36"/>
+    </row>
+    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-    </row>
-    <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E109" s="156"/>
+      <c r="F109" s="36"/>
+    </row>
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E110" s="156"/>
+      <c r="F110" s="36"/>
+    </row>
+    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-    </row>
-    <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E111" s="156"/>
+      <c r="F111" s="36"/>
+    </row>
+    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-    </row>
-    <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E112" s="156"/>
+      <c r="F112" s="36"/>
+    </row>
+    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-    </row>
-    <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E113" s="156"/>
+      <c r="F113" s="36"/>
+    </row>
+    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-    </row>
-    <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E114" s="156"/>
+      <c r="F114" s="36"/>
+    </row>
+    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-    </row>
-    <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E115" s="156"/>
+      <c r="F115" s="36"/>
+    </row>
+    <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E116" s="156"/>
+      <c r="F116" s="36"/>
+    </row>
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-    </row>
-    <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E117" s="156"/>
+      <c r="F117" s="36"/>
+    </row>
+    <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-    </row>
-    <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E118" s="156"/>
+      <c r="F118" s="36"/>
+    </row>
+    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-    </row>
-    <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E119" s="156"/>
+      <c r="F119" s="36"/>
+    </row>
+    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-    </row>
-    <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E120" s="156"/>
+      <c r="F120" s="36"/>
+    </row>
+    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-    </row>
-    <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E121" s="156"/>
+      <c r="F121" s="36"/>
+    </row>
+    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-    </row>
-    <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E122" s="156"/>
+      <c r="F122" s="36"/>
+    </row>
+    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
-    </row>
-    <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E123" s="156"/>
+      <c r="F123" s="36"/>
+    </row>
+    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E124" s="156"/>
+      <c r="F124" s="36"/>
+    </row>
+    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-    </row>
-    <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E125" s="156"/>
+      <c r="F125" s="36"/>
+    </row>
+    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E126" s="156"/>
+      <c r="F126" s="36"/>
+    </row>
+    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E127" s="156"/>
+      <c r="F127" s="36"/>
+    </row>
+    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E128" s="156"/>
+      <c r="F128" s="36"/>
+    </row>
+    <row r="129" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
-    </row>
-    <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E129" s="156"/>
+      <c r="F129" s="36"/>
+    </row>
+    <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-    </row>
-    <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E130" s="156"/>
+      <c r="F130" s="36"/>
+    </row>
+    <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-    </row>
-    <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E131" s="156"/>
+      <c r="F131" s="36"/>
+    </row>
+    <row r="132" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-    </row>
-    <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E132" s="156"/>
+      <c r="F132" s="36"/>
+    </row>
+    <row r="133" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-    </row>
-    <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E133" s="156"/>
+      <c r="F133" s="36"/>
+    </row>
+    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-    </row>
-    <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E134" s="156"/>
+      <c r="F134" s="36"/>
+    </row>
+    <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-    </row>
-    <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E135" s="156"/>
+      <c r="F135" s="36"/>
+    </row>
+    <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E136" s="156"/>
+      <c r="F136" s="36"/>
+    </row>
+    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-    </row>
-    <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E137" s="156"/>
+      <c r="F137" s="36"/>
+    </row>
+    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-    </row>
-    <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E138" s="156"/>
+      <c r="F138" s="36"/>
+    </row>
+    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-    </row>
-    <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E139" s="156"/>
+      <c r="F139" s="36"/>
+    </row>
+    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-    </row>
-    <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E140" s="156"/>
+      <c r="F140" s="36"/>
+    </row>
+    <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-    </row>
-    <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E141" s="156"/>
+      <c r="F141" s="36"/>
+    </row>
+    <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E142" s="156"/>
+      <c r="F142" s="36"/>
+    </row>
+    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-    </row>
-    <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E143" s="156"/>
+      <c r="F143" s="36"/>
+    </row>
+    <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-    </row>
-    <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E144" s="156"/>
+      <c r="F144" s="36"/>
+    </row>
+    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-    </row>
-    <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E145" s="156"/>
+      <c r="F145" s="36"/>
+    </row>
+    <row r="146" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-    </row>
-    <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E146" s="156"/>
+      <c r="F146" s="36"/>
+    </row>
+    <row r="147" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-    </row>
-    <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E147" s="156"/>
+      <c r="F147" s="36"/>
+    </row>
+    <row r="148" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-    </row>
-    <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E148" s="156"/>
+      <c r="F148" s="36"/>
+    </row>
+    <row r="149" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-    </row>
-    <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E149" s="156"/>
+      <c r="F149" s="36"/>
+    </row>
+    <row r="150" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-    </row>
-    <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E150" s="156"/>
+      <c r="F150" s="36"/>
+    </row>
+    <row r="151" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-    </row>
-    <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E151" s="156"/>
+      <c r="F151" s="36"/>
+    </row>
+    <row r="152" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E152" s="156"/>
+      <c r="F152" s="36"/>
+    </row>
+    <row r="153" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-    </row>
-    <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E153" s="156"/>
+      <c r="F153" s="36"/>
+    </row>
+    <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-    </row>
-    <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E154" s="156"/>
+      <c r="F154" s="36"/>
+    </row>
+    <row r="155" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-    </row>
-    <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E155" s="156"/>
+      <c r="F155" s="36"/>
+    </row>
+    <row r="156" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-    </row>
-    <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E156" s="156"/>
+      <c r="F156" s="36"/>
+    </row>
+    <row r="157" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-    </row>
-    <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E157" s="156"/>
+      <c r="F157" s="36"/>
+    </row>
+    <row r="158" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-    </row>
-    <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E158" s="156"/>
+      <c r="F158" s="36"/>
+    </row>
+    <row r="159" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-    </row>
-    <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E159" s="156"/>
+      <c r="F159" s="36"/>
+    </row>
+    <row r="160" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-    </row>
-    <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E160" s="156"/>
+      <c r="F160" s="36"/>
+    </row>
+    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-    </row>
-    <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E161" s="156"/>
+      <c r="F161" s="36"/>
+    </row>
+    <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-    </row>
-    <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E162" s="156"/>
+      <c r="F162" s="36"/>
+    </row>
+    <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-    </row>
-    <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E163" s="156"/>
+      <c r="F163" s="36"/>
+    </row>
+    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-    </row>
-    <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E164" s="156"/>
+      <c r="F164" s="36"/>
+    </row>
+    <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-    </row>
-    <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E165" s="156"/>
+      <c r="F165" s="36"/>
+    </row>
+    <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-    </row>
-    <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E166" s="156"/>
+      <c r="F166" s="36"/>
+    </row>
+    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-    </row>
-    <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E167" s="156"/>
+      <c r="F167" s="36"/>
+    </row>
+    <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-    </row>
-    <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E168" s="156"/>
+      <c r="F168" s="36"/>
+    </row>
+    <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-    </row>
-    <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E169" s="156"/>
+      <c r="F169" s="36"/>
+    </row>
+    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-    </row>
-    <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E170" s="156"/>
+      <c r="F170" s="36"/>
+    </row>
+    <row r="171" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-    </row>
-    <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E171" s="156"/>
+      <c r="F171" s="36"/>
+    </row>
+    <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-    </row>
-    <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E172" s="156"/>
+      <c r="F172" s="36"/>
+    </row>
+    <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-    </row>
-    <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E173" s="156"/>
+      <c r="F173" s="36"/>
+    </row>
+    <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-    </row>
-    <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E174" s="156"/>
+      <c r="F174" s="36"/>
+    </row>
+    <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-    </row>
-    <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E175" s="156"/>
+      <c r="F175" s="36"/>
+    </row>
+    <row r="176" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-    </row>
-    <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E176" s="156"/>
+      <c r="F176" s="36"/>
+    </row>
+    <row r="177" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
-    </row>
-    <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E177" s="156"/>
+      <c r="F177" s="36"/>
+    </row>
+    <row r="178" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
-    </row>
-    <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E178" s="156"/>
+      <c r="F178" s="36"/>
+    </row>
+    <row r="179" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-    </row>
-    <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E179" s="156"/>
+      <c r="F179" s="36"/>
+    </row>
+    <row r="180" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
-    </row>
-    <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E180" s="156"/>
+      <c r="F180" s="36"/>
+    </row>
+    <row r="181" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-    </row>
-    <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E181" s="156"/>
+      <c r="F181" s="36"/>
+    </row>
+    <row r="182" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-    </row>
-    <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E182" s="156"/>
+      <c r="F182" s="36"/>
+    </row>
+    <row r="183" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-    </row>
-    <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E183" s="156"/>
+      <c r="F183" s="36"/>
+    </row>
+    <row r="184" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
-    </row>
-    <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E184" s="156"/>
+      <c r="F184" s="36"/>
+    </row>
+    <row r="185" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-    </row>
-    <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E185" s="156"/>
+      <c r="F185" s="36"/>
+    </row>
+    <row r="186" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-    </row>
-    <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E186" s="156"/>
+      <c r="F186" s="36"/>
+    </row>
+    <row r="187" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
-    </row>
-    <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E187" s="156"/>
+      <c r="F187" s="36"/>
+    </row>
+    <row r="188" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-    </row>
-    <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E188" s="156"/>
+      <c r="F188" s="36"/>
+    </row>
+    <row r="189" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-    </row>
-    <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E189" s="156"/>
+      <c r="F189" s="36"/>
+    </row>
+    <row r="190" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-    </row>
-    <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E190" s="156"/>
+      <c r="F190" s="36"/>
+    </row>
+    <row r="191" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-    </row>
-    <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E191" s="156"/>
+      <c r="F191" s="36"/>
+    </row>
+    <row r="192" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-    </row>
-    <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E192" s="156"/>
+      <c r="F192" s="36"/>
+    </row>
+    <row r="193" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
-    </row>
-    <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E193" s="156"/>
+      <c r="F193" s="36"/>
+    </row>
+    <row r="194" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-    </row>
-    <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E194" s="156"/>
+      <c r="F194" s="36"/>
+    </row>
+    <row r="195" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-    </row>
-    <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E195" s="156"/>
+      <c r="F195" s="36"/>
+    </row>
+    <row r="196" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-    </row>
-    <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E196" s="156"/>
+      <c r="F196" s="36"/>
+    </row>
+    <row r="197" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-    </row>
-    <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E197" s="156"/>
+      <c r="F197" s="36"/>
+    </row>
+    <row r="198" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
-    </row>
-    <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E198" s="156"/>
+      <c r="F198" s="36"/>
+    </row>
+    <row r="199" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
-    </row>
-    <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E199" s="156"/>
+      <c r="F199" s="36"/>
+    </row>
+    <row r="200" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
-    </row>
-    <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E200" s="156"/>
+      <c r="F200" s="36"/>
+    </row>
+    <row r="201" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
-    </row>
-    <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E201" s="156"/>
+      <c r="F201" s="36"/>
+    </row>
+    <row r="202" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-    </row>
-    <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E202" s="156"/>
+      <c r="F202" s="36"/>
+    </row>
+    <row r="203" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
-    </row>
-    <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E203" s="156"/>
+      <c r="F203" s="36"/>
+    </row>
+    <row r="204" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
-    </row>
-    <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E204" s="156"/>
+      <c r="F204" s="36"/>
+    </row>
+    <row r="205" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
-    </row>
-    <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E205" s="156"/>
+      <c r="F205" s="36"/>
+    </row>
+    <row r="206" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
-    </row>
-    <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E206" s="156"/>
+      <c r="F206" s="36"/>
+    </row>
+    <row r="207" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-    </row>
-    <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E207" s="156"/>
+      <c r="F207" s="36"/>
+    </row>
+    <row r="208" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
-    </row>
-    <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E208" s="156"/>
+      <c r="F208" s="36"/>
+    </row>
+    <row r="209" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
-    </row>
-    <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E209" s="156"/>
+      <c r="F209" s="36"/>
+    </row>
+    <row r="210" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
-    </row>
-    <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E210" s="156"/>
+      <c r="F210" s="36"/>
+    </row>
+    <row r="211" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
-    </row>
-    <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E211" s="156"/>
+      <c r="F211" s="36"/>
+    </row>
+    <row r="212" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-    </row>
-    <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E212" s="156"/>
+      <c r="F212" s="36"/>
+    </row>
+    <row r="213" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
-    </row>
-    <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E213" s="156"/>
+      <c r="F213" s="36"/>
+    </row>
+    <row r="214" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-    </row>
-    <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E214" s="156"/>
+      <c r="F214" s="36"/>
+    </row>
+    <row r="215" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-    </row>
-    <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E215" s="156"/>
+      <c r="F215" s="36"/>
+    </row>
+    <row r="216" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-    </row>
-    <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E216" s="156"/>
+      <c r="F216" s="36"/>
+    </row>
+    <row r="217" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-    </row>
-    <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E217" s="156"/>
+      <c r="F217" s="36"/>
+    </row>
+    <row r="218" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
-    </row>
-    <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E218" s="156"/>
+      <c r="F218" s="36"/>
+    </row>
+    <row r="219" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-    </row>
-    <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E219" s="156"/>
+      <c r="F219" s="36"/>
+    </row>
+    <row r="220" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-    </row>
-    <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E220" s="156"/>
+      <c r="F220" s="36"/>
+    </row>
+    <row r="221" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
-    </row>
-    <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E221" s="156"/>
+      <c r="F221" s="36"/>
+    </row>
+    <row r="222" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-    </row>
-    <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E222" s="156"/>
+      <c r="F222" s="36"/>
+    </row>
+    <row r="223" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-    </row>
-    <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E223" s="156"/>
+      <c r="F223" s="36"/>
+    </row>
+    <row r="224" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-    </row>
-    <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E224" s="156"/>
+      <c r="F224" s="36"/>
+    </row>
+    <row r="225" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
-    </row>
-    <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E225" s="156"/>
+      <c r="F225" s="36"/>
+    </row>
+    <row r="226" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
-    </row>
-    <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E226" s="156"/>
+      <c r="F226" s="36"/>
+    </row>
+    <row r="227" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-    </row>
-    <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E227" s="156"/>
+      <c r="F227" s="36"/>
+    </row>
+    <row r="228" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-    </row>
-    <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E228" s="156"/>
+      <c r="F228" s="36"/>
+    </row>
+    <row r="229" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
-    </row>
-    <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E229" s="156"/>
+      <c r="F229" s="36"/>
+    </row>
+    <row r="230" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
-    </row>
-    <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E230" s="156"/>
+      <c r="F230" s="36"/>
+    </row>
+    <row r="231" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
-    </row>
-    <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E231" s="156"/>
+      <c r="F231" s="36"/>
+    </row>
+    <row r="232" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
-    </row>
-    <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E232" s="156"/>
+      <c r="F232" s="36"/>
+    </row>
+    <row r="233" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
-    </row>
-    <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E233" s="156"/>
+      <c r="F233" s="36"/>
+    </row>
+    <row r="234" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
-    </row>
-    <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E234" s="156"/>
+      <c r="F234" s="36"/>
+    </row>
+    <row r="235" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
-    </row>
-    <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E235" s="156"/>
+      <c r="F235" s="36"/>
+    </row>
+    <row r="236" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
-    </row>
-    <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E236" s="156"/>
+      <c r="F236" s="36"/>
+    </row>
+    <row r="237" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
-    </row>
-    <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E237" s="156"/>
+      <c r="F237" s="36"/>
+    </row>
+    <row r="238" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
-    </row>
-    <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E238" s="156"/>
+      <c r="F238" s="36"/>
+    </row>
+    <row r="239" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
-    </row>
-    <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E239" s="156"/>
+      <c r="F239" s="36"/>
+    </row>
+    <row r="240" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
-    </row>
-    <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E240" s="156"/>
+      <c r="F240" s="36"/>
+    </row>
+    <row r="241" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-    </row>
-    <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E241" s="156"/>
+      <c r="F241" s="36"/>
+    </row>
+    <row r="242" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
-    </row>
-    <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E242" s="156"/>
+      <c r="F242" s="36"/>
+    </row>
+    <row r="243" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
-    </row>
-    <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E243" s="156"/>
+      <c r="F243" s="36"/>
+    </row>
+    <row r="244" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
-    </row>
-    <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E244" s="156"/>
+      <c r="F244" s="36"/>
+    </row>
+    <row r="245" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
-    </row>
-    <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E245" s="156"/>
+      <c r="F245" s="36"/>
+    </row>
+    <row r="246" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-    </row>
-    <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E246" s="156"/>
+      <c r="F246" s="36"/>
+    </row>
+    <row r="247" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
-    </row>
-    <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E247" s="156"/>
+      <c r="F247" s="36"/>
+    </row>
+    <row r="248" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
-    </row>
-    <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E248" s="156"/>
+      <c r="F248" s="36"/>
+    </row>
+    <row r="249" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
-    </row>
-    <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E249" s="156"/>
+      <c r="F249" s="36"/>
+    </row>
+    <row r="250" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
-    </row>
-    <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E250" s="156"/>
+      <c r="F250" s="36"/>
+    </row>
+    <row r="251" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
-    </row>
-    <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E251" s="156"/>
+      <c r="F251" s="36"/>
+    </row>
+    <row r="252" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
-    </row>
-    <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E252" s="156"/>
+      <c r="F252" s="36"/>
+    </row>
+    <row r="253" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
-    </row>
-    <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E253" s="156"/>
+      <c r="F253" s="36"/>
+    </row>
+    <row r="254" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
-    </row>
-    <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E254" s="156"/>
+      <c r="F254" s="36"/>
+    </row>
+    <row r="255" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
-    </row>
-    <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E255" s="156"/>
+      <c r="F255" s="36"/>
+    </row>
+    <row r="256" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
-    </row>
-    <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E256" s="156"/>
+      <c r="F256" s="36"/>
+    </row>
+    <row r="257" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
-    </row>
-    <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E257" s="156"/>
+      <c r="F257" s="36"/>
+    </row>
+    <row r="258" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
-    </row>
-    <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E258" s="156"/>
+      <c r="F258" s="36"/>
+    </row>
+    <row r="259" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
-    </row>
-    <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E259" s="156"/>
+      <c r="F259" s="36"/>
+    </row>
+    <row r="260" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
-    </row>
-    <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E260" s="156"/>
+      <c r="F260" s="36"/>
+    </row>
+    <row r="261" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
-    </row>
-    <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E261" s="156"/>
+      <c r="F261" s="36"/>
+    </row>
+    <row r="262" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
-    </row>
-    <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E262" s="156"/>
+      <c r="F262" s="36"/>
+    </row>
+    <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
-    </row>
-    <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E263" s="156"/>
+      <c r="F263" s="36"/>
+    </row>
+    <row r="264" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
-    </row>
-    <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E264" s="156"/>
+      <c r="F264" s="36"/>
+    </row>
+    <row r="265" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
-    </row>
-    <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E265" s="156"/>
+      <c r="F265" s="36"/>
+    </row>
+    <row r="266" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
-    </row>
-    <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E266" s="156"/>
+      <c r="F266" s="36"/>
+    </row>
+    <row r="267" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
-    </row>
-    <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E267" s="156"/>
+      <c r="F267" s="36"/>
+    </row>
+    <row r="268" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
-    </row>
-    <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E268" s="156"/>
+      <c r="F268" s="36"/>
+    </row>
+    <row r="269" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
-    </row>
-    <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E269" s="156"/>
+      <c r="F269" s="36"/>
+    </row>
+    <row r="270" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
-    </row>
-    <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E270" s="156"/>
+      <c r="F270" s="36"/>
+    </row>
+    <row r="271" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
-    </row>
-    <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E271" s="156"/>
+      <c r="F271" s="36"/>
+    </row>
+    <row r="272" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
-    </row>
-    <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E272" s="156"/>
+      <c r="F272" s="36"/>
+    </row>
+    <row r="273" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
-    </row>
-    <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E273" s="156"/>
+      <c r="F273" s="36"/>
+    </row>
+    <row r="274" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
-    </row>
-    <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E274" s="156"/>
+      <c r="F274" s="36"/>
+    </row>
+    <row r="275" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
-    </row>
-    <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E275" s="156"/>
+      <c r="F275" s="36"/>
+    </row>
+    <row r="276" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
-    </row>
-    <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E276" s="156"/>
+      <c r="F276" s="36"/>
+    </row>
+    <row r="277" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
-    </row>
-    <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E277" s="156"/>
+      <c r="F277" s="36"/>
+    </row>
+    <row r="278" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
-    </row>
-    <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E278" s="156"/>
+      <c r="F278" s="36"/>
+    </row>
+    <row r="279" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
-    </row>
-    <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E279" s="156"/>
+      <c r="F279" s="36"/>
+    </row>
+    <row r="280" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
-    </row>
-    <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E280" s="156"/>
+      <c r="F280" s="36"/>
+    </row>
+    <row r="281" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
-    </row>
-    <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E281" s="156"/>
+      <c r="F281" s="36"/>
+    </row>
+    <row r="282" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
-    </row>
-    <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E282" s="156"/>
+      <c r="F282" s="36"/>
+    </row>
+    <row r="283" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
-    </row>
-    <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E283" s="156"/>
+      <c r="F283" s="36"/>
+    </row>
+    <row r="284" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
-    </row>
-    <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E284" s="156"/>
+      <c r="F284" s="36"/>
+    </row>
+    <row r="285" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
-    </row>
-    <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E285" s="156"/>
+      <c r="F285" s="36"/>
+    </row>
+    <row r="286" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
-    </row>
-    <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E286" s="156"/>
+      <c r="F286" s="36"/>
+    </row>
+    <row r="287" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
-    </row>
-    <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E287" s="156"/>
+      <c r="F287" s="36"/>
+    </row>
+    <row r="288" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
-    </row>
-    <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E288" s="156"/>
+      <c r="F288" s="36"/>
+    </row>
+    <row r="289" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
-    </row>
-    <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E289" s="156"/>
+      <c r="F289" s="36"/>
+    </row>
+    <row r="290" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
-    </row>
-    <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E290" s="156"/>
+      <c r="F290" s="36"/>
+    </row>
+    <row r="291" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
-    </row>
-    <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E291" s="156"/>
+      <c r="F291" s="36"/>
+    </row>
+    <row r="292" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
-    </row>
-    <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E292" s="156"/>
+      <c r="F292" s="36"/>
+    </row>
+    <row r="293" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
-    </row>
-    <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E293" s="156"/>
+      <c r="F293" s="36"/>
+    </row>
+    <row r="294" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
-    </row>
-    <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E294" s="156"/>
+      <c r="F294" s="36"/>
+    </row>
+    <row r="295" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
-    </row>
-    <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E295" s="156"/>
+      <c r="F295" s="36"/>
+    </row>
+    <row r="296" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
-    </row>
-    <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E296" s="156"/>
+      <c r="F296" s="36"/>
+    </row>
+    <row r="297" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
-    </row>
-    <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E297" s="156"/>
+      <c r="F297" s="36"/>
+    </row>
+    <row r="298" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
-    </row>
-    <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E298" s="156"/>
+      <c r="F298" s="36"/>
+    </row>
+    <row r="299" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
-    </row>
-    <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E299" s="156"/>
+      <c r="F299" s="36"/>
+    </row>
+    <row r="300" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
-    </row>
-    <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E300" s="156"/>
+      <c r="F300" s="36"/>
+    </row>
+    <row r="301" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
-    </row>
-    <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E301" s="156"/>
+      <c r="F301" s="36"/>
+    </row>
+    <row r="302" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
-    </row>
-    <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E302" s="156"/>
+      <c r="F302" s="36"/>
+    </row>
+    <row r="303" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
-    </row>
-    <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E303" s="156"/>
+      <c r="F303" s="36"/>
+    </row>
+    <row r="304" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
-    </row>
-    <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E304" s="156"/>
+      <c r="F304" s="36"/>
+    </row>
+    <row r="305" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
-    </row>
-    <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E305" s="156"/>
+      <c r="F305" s="36"/>
+    </row>
+    <row r="306" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
-    </row>
-    <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E306" s="156"/>
+      <c r="F306" s="36"/>
+    </row>
+    <row r="307" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
-    </row>
-    <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E307" s="156"/>
+      <c r="F307" s="36"/>
+    </row>
+    <row r="308" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
-    </row>
-    <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E308" s="156"/>
+      <c r="F308" s="36"/>
+    </row>
+    <row r="309" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
-    </row>
-    <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E309" s="156"/>
+      <c r="F309" s="36"/>
+    </row>
+    <row r="310" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
-    </row>
-    <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E310" s="156"/>
+      <c r="F310" s="36"/>
+    </row>
+    <row r="311" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
-    </row>
-    <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E311" s="156"/>
+      <c r="F311" s="36"/>
+    </row>
+    <row r="312" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
-    </row>
-    <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E312" s="156"/>
+      <c r="F312" s="36"/>
+    </row>
+    <row r="313" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
-    </row>
-    <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E313" s="156"/>
+      <c r="F313" s="36"/>
+    </row>
+    <row r="314" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
-    </row>
-    <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E314" s="156"/>
+      <c r="F314" s="36"/>
+    </row>
+    <row r="315" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
-    </row>
-    <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E315" s="156"/>
+      <c r="F315" s="36"/>
+    </row>
+    <row r="316" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
-    </row>
-    <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E316" s="156"/>
+      <c r="F316" s="36"/>
+    </row>
+    <row r="317" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
-    </row>
-    <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E317" s="156"/>
+      <c r="F317" s="36"/>
+    </row>
+    <row r="318" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
-    </row>
-    <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E318" s="156"/>
+      <c r="F318" s="36"/>
+    </row>
+    <row r="319" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
-    </row>
-    <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E319" s="156"/>
+      <c r="F319" s="36"/>
+    </row>
+    <row r="320" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
-    </row>
-    <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E320" s="156"/>
+      <c r="F320" s="36"/>
+    </row>
+    <row r="321" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
-    </row>
-    <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E321" s="156"/>
+      <c r="F321" s="36"/>
+    </row>
+    <row r="322" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
-    </row>
-    <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E322" s="156"/>
+      <c r="F322" s="36"/>
+    </row>
+    <row r="323" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
-    </row>
-    <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E323" s="156"/>
+      <c r="F323" s="36"/>
+    </row>
+    <row r="324" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
-    </row>
-    <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E324" s="156"/>
+      <c r="F324" s="36"/>
+    </row>
+    <row r="325" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
-    </row>
-    <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E325" s="156"/>
+      <c r="F325" s="36"/>
+    </row>
+    <row r="326" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
-    </row>
-    <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E326" s="156"/>
+      <c r="F326" s="36"/>
+    </row>
+    <row r="327" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
-    </row>
-    <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E327" s="156"/>
+      <c r="F327" s="36"/>
+    </row>
+    <row r="328" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
-    </row>
-    <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E328" s="156"/>
+      <c r="F328" s="36"/>
+    </row>
+    <row r="329" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
-    </row>
-    <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E329" s="156"/>
+      <c r="F329" s="36"/>
+    </row>
+    <row r="330" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
-    </row>
-    <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E330" s="156"/>
+      <c r="F330" s="36"/>
+    </row>
+    <row r="331" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
-    </row>
-    <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E331" s="156"/>
+      <c r="F331" s="36"/>
+    </row>
+    <row r="332" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
-    </row>
-    <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E332" s="156"/>
+      <c r="F332" s="36"/>
+    </row>
+    <row r="333" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
-    </row>
-    <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E333" s="156"/>
+      <c r="F333" s="36"/>
+    </row>
+    <row r="334" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
-    </row>
-    <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E334" s="156"/>
+      <c r="F334" s="36"/>
+    </row>
+    <row r="335" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
-    </row>
-    <row r="336" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E335" s="156"/>
+      <c r="F335" s="36"/>
+    </row>
+    <row r="336" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
-    </row>
-    <row r="337" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E336" s="156"/>
+      <c r="F336" s="36"/>
+    </row>
+    <row r="337" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
-    </row>
-    <row r="338" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E337" s="156"/>
+      <c r="F337" s="36"/>
+    </row>
+    <row r="338" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
-    </row>
-    <row r="339" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E338" s="156"/>
+      <c r="F338" s="36"/>
+    </row>
+    <row r="339" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
-    </row>
-    <row r="340" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E339" s="156"/>
+      <c r="F339" s="36"/>
+    </row>
+    <row r="340" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
-    </row>
-    <row r="341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E340" s="156"/>
+      <c r="F340" s="36"/>
+    </row>
+    <row r="341" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
-    </row>
-    <row r="342" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E341" s="156"/>
+      <c r="F341" s="36"/>
+    </row>
+    <row r="342" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
-    </row>
-    <row r="343" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E342" s="156"/>
+      <c r="F342" s="36"/>
+    </row>
+    <row r="343" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
-    </row>
-    <row r="344" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E343" s="156"/>
+      <c r="F343" s="36"/>
+    </row>
+    <row r="344" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
-    </row>
-    <row r="345" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E344" s="156"/>
+      <c r="F344" s="36"/>
+    </row>
+    <row r="345" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
-    </row>
-    <row r="346" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E345" s="156"/>
+      <c r="F345" s="36"/>
+    </row>
+    <row r="346" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
-    </row>
-    <row r="347" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E346" s="156"/>
+      <c r="F346" s="36"/>
+    </row>
+    <row r="347" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
-    </row>
-    <row r="348" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E347" s="156"/>
+      <c r="F347" s="36"/>
+    </row>
+    <row r="348" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
-    </row>
-    <row r="349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E348" s="156"/>
+      <c r="F348" s="36"/>
+    </row>
+    <row r="349" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
-    </row>
-    <row r="350" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E349" s="156"/>
+      <c r="F349" s="36"/>
+    </row>
+    <row r="350" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
-    </row>
-    <row r="351" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E350" s="156"/>
+      <c r="F350" s="36"/>
+    </row>
+    <row r="351" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
-    </row>
-    <row r="352" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E351" s="156"/>
+      <c r="F351" s="36"/>
+    </row>
+    <row r="352" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
-    </row>
-    <row r="353" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E352" s="156"/>
+      <c r="F352" s="36"/>
+    </row>
+    <row r="353" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
-    </row>
-    <row r="354" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E353" s="156"/>
+      <c r="F353" s="36"/>
+    </row>
+    <row r="354" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
-    </row>
-    <row r="355" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E354" s="156"/>
+      <c r="F354" s="36"/>
+    </row>
+    <row r="355" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
-    </row>
-    <row r="356" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E355" s="156"/>
+      <c r="F355" s="36"/>
+    </row>
+    <row r="356" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
-    </row>
-    <row r="357" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E356" s="156"/>
+      <c r="F356" s="36"/>
+    </row>
+    <row r="357" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
-    </row>
-    <row r="358" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E357" s="156"/>
+      <c r="F357" s="36"/>
+    </row>
+    <row r="358" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
-    </row>
-    <row r="359" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E358" s="156"/>
+      <c r="F358" s="36"/>
+    </row>
+    <row r="359" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
-    </row>
-    <row r="360" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E359" s="156"/>
+      <c r="F359" s="36"/>
+    </row>
+    <row r="360" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
-    </row>
-    <row r="361" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E360" s="156"/>
+      <c r="F360" s="36"/>
+    </row>
+    <row r="361" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
-    </row>
-    <row r="362" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E361" s="156"/>
+      <c r="F361" s="36"/>
+    </row>
+    <row r="362" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
-    </row>
-    <row r="363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E362" s="156"/>
+      <c r="F362" s="36"/>
+    </row>
+    <row r="363" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
-    </row>
-    <row r="364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E363" s="156"/>
+      <c r="F363" s="36"/>
+    </row>
+    <row r="364" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
-    </row>
-    <row r="365" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E364" s="156"/>
+      <c r="F364" s="36"/>
+    </row>
+    <row r="365" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
-    </row>
-    <row r="366" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E365" s="156"/>
+      <c r="F365" s="36"/>
+    </row>
+    <row r="366" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
-    </row>
-    <row r="367" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E366" s="156"/>
+      <c r="F366" s="36"/>
+    </row>
+    <row r="367" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
-    </row>
-    <row r="368" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E367" s="156"/>
+      <c r="F367" s="36"/>
+    </row>
+    <row r="368" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
-    </row>
-    <row r="369" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E368" s="156"/>
+      <c r="F368" s="36"/>
+    </row>
+    <row r="369" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
-    </row>
-    <row r="370" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E369" s="156"/>
+      <c r="F369" s="36"/>
+    </row>
+    <row r="370" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
-    </row>
-    <row r="371" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E370" s="156"/>
+      <c r="F370" s="36"/>
+    </row>
+    <row r="371" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
-    </row>
-    <row r="372" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E371" s="156"/>
+      <c r="F371" s="36"/>
+    </row>
+    <row r="372" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
-    </row>
-    <row r="373" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E372" s="156"/>
+      <c r="F372" s="36"/>
+    </row>
+    <row r="373" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
-    </row>
-    <row r="374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E373" s="156"/>
+      <c r="F373" s="36"/>
+    </row>
+    <row r="374" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
-    </row>
-    <row r="375" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E374" s="156"/>
+      <c r="F374" s="36"/>
+    </row>
+    <row r="375" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
-    </row>
-    <row r="376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E375" s="156"/>
+      <c r="F375" s="36"/>
+    </row>
+    <row r="376" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
-    </row>
-    <row r="377" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E376" s="156"/>
+      <c r="F376" s="36"/>
+    </row>
+    <row r="377" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
-    </row>
-    <row r="378" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E377" s="156"/>
+      <c r="F377" s="36"/>
+    </row>
+    <row r="378" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
-    </row>
-    <row r="379" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E378" s="156"/>
+      <c r="F378" s="36"/>
+    </row>
+    <row r="379" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
-    </row>
-    <row r="380" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E379" s="156"/>
+      <c r="F379" s="36"/>
+    </row>
+    <row r="380" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
-    </row>
-    <row r="381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E380" s="156"/>
+      <c r="F380" s="36"/>
+    </row>
+    <row r="381" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
-    </row>
-    <row r="382" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E381" s="156"/>
+      <c r="F381" s="36"/>
+    </row>
+    <row r="382" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
-    </row>
-    <row r="383" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E382" s="156"/>
+      <c r="F382" s="36"/>
+    </row>
+    <row r="383" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
+      <c r="E383" s="156"/>
+      <c r="F383" s="36"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E384" s="156"/>
+      <c r="F384" s="36"/>
+    </row>
+    <row r="385" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E385" s="156"/>
+      <c r="F385" s="36"/>
+    </row>
+    <row r="386" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E386" s="156"/>
+      <c r="F386" s="36"/>
+    </row>
+    <row r="387" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E387" s="156"/>
+      <c r="F387" s="36"/>
+    </row>
+    <row r="388" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E388" s="156"/>
+      <c r="F388" s="36"/>
+    </row>
+    <row r="389" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E389" s="156"/>
+      <c r="F389" s="36"/>
+    </row>
+    <row r="390" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E390" s="156"/>
+      <c r="F390" s="36"/>
+    </row>
+    <row r="391" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E391" s="156"/>
+      <c r="F391" s="36"/>
+    </row>
+    <row r="392" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E392" s="156"/>
+      <c r="F392" s="36"/>
+    </row>
+    <row r="393" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E393" s="156"/>
+      <c r="F393" s="36"/>
+    </row>
+    <row r="394" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E394" s="156"/>
+      <c r="F394" s="36"/>
+    </row>
+    <row r="395" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E395" s="156"/>
+      <c r="F395" s="36"/>
+    </row>
+    <row r="396" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E396" s="156"/>
+      <c r="F396" s="36"/>
+    </row>
+    <row r="397" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E397" s="156"/>
+      <c r="F397" s="36"/>
+    </row>
+    <row r="398" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E398" s="156"/>
+      <c r="F398" s="36"/>
+    </row>
+    <row r="399" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E399" s="156"/>
+      <c r="F399" s="36"/>
+    </row>
+    <row r="400" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E400" s="156"/>
+      <c r="F400" s="36"/>
+    </row>
+    <row r="401" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E401" s="156"/>
+      <c r="F401" s="36"/>
+    </row>
+    <row r="402" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E402" s="156"/>
+      <c r="F402" s="36"/>
+    </row>
+    <row r="403" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E403" s="156"/>
+      <c r="F403" s="36"/>
+    </row>
+    <row r="404" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E404" s="156"/>
+      <c r="F404" s="36"/>
+    </row>
+    <row r="405" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E405" s="156"/>
+      <c r="F405" s="36"/>
+    </row>
+    <row r="406" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E406" s="156"/>
+      <c r="F406" s="36"/>
+    </row>
+    <row r="407" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E407" s="156"/>
+      <c r="F407" s="36"/>
+    </row>
+    <row r="408" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E408" s="156"/>
+      <c r="F408" s="36"/>
+    </row>
+    <row r="409" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E409" s="156"/>
+      <c r="F409" s="36"/>
+    </row>
+    <row r="410" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E410" s="156"/>
+      <c r="F410" s="36"/>
+    </row>
+    <row r="411" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E411" s="156"/>
+      <c r="F411" s="36"/>
+    </row>
+    <row r="412" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E412" s="156"/>
+      <c r="F412" s="36"/>
+    </row>
+    <row r="413" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E413" s="156"/>
+      <c r="F413" s="36"/>
+    </row>
+    <row r="414" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E414" s="156"/>
+      <c r="F414" s="36"/>
+    </row>
+    <row r="415" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E415" s="156"/>
+      <c r="F415" s="36"/>
+    </row>
+    <row r="416" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E416" s="156"/>
+      <c r="F416" s="36"/>
+    </row>
+    <row r="417" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E417" s="156"/>
+      <c r="F417" s="36"/>
+    </row>
+    <row r="418" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E418" s="156"/>
+      <c r="F418" s="36"/>
+    </row>
+    <row r="419" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E419" s="156"/>
+      <c r="F419" s="36"/>
+    </row>
+    <row r="420" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E420" s="156"/>
+      <c r="F420" s="36"/>
+    </row>
+    <row r="421" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E421" s="156"/>
+      <c r="F421" s="36"/>
+    </row>
+    <row r="422" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E422" s="156"/>
+      <c r="F422" s="36"/>
+    </row>
+    <row r="423" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E423" s="156"/>
+      <c r="F423" s="36"/>
+    </row>
+    <row r="424" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E424" s="156"/>
+      <c r="F424" s="36"/>
+    </row>
+    <row r="425" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E425" s="156"/>
+      <c r="F425" s="36"/>
+    </row>
+    <row r="426" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E426" s="156"/>
+      <c r="F426" s="36"/>
+    </row>
+    <row r="427" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E427" s="156"/>
+      <c r="F427" s="36"/>
+    </row>
+    <row r="428" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E428" s="156"/>
+      <c r="F428" s="36"/>
+    </row>
+    <row r="429" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E429" s="156"/>
+      <c r="F429" s="36"/>
+    </row>
+    <row r="430" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E430" s="156"/>
+      <c r="F430" s="36"/>
+    </row>
+    <row r="431" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E431" s="156"/>
+      <c r="F431" s="36"/>
+    </row>
+    <row r="432" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E432" s="156"/>
+      <c r="F432" s="36"/>
+    </row>
+    <row r="433" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E433" s="156"/>
+      <c r="F433" s="36"/>
+    </row>
+    <row r="434" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E434" s="156"/>
+      <c r="F434" s="36"/>
+    </row>
+    <row r="435" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E435" s="156"/>
+      <c r="F435" s="36"/>
+    </row>
+    <row r="436" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E436" s="156"/>
+      <c r="F436" s="36"/>
+    </row>
+    <row r="437" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E437" s="156"/>
+      <c r="F437" s="36"/>
+    </row>
+    <row r="438" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E438" s="156"/>
+      <c r="F438" s="36"/>
+    </row>
+    <row r="439" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E439" s="156"/>
+      <c r="F439" s="36"/>
+    </row>
+    <row r="440" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E440" s="156"/>
+      <c r="F440" s="36"/>
+    </row>
+    <row r="441" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E441" s="156"/>
+      <c r="F441" s="36"/>
+    </row>
+    <row r="442" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E442" s="156"/>
+      <c r="F442" s="36"/>
+    </row>
+    <row r="443" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E443" s="156"/>
+      <c r="F443" s="36"/>
+    </row>
+    <row r="444" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E444" s="156"/>
+      <c r="F444" s="36"/>
+    </row>
+    <row r="445" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E445" s="156"/>
+      <c r="F445" s="36"/>
+    </row>
+    <row r="446" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E446" s="156"/>
+      <c r="F446" s="36"/>
+    </row>
+    <row r="447" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E447" s="156"/>
+      <c r="F447" s="36"/>
+    </row>
+    <row r="448" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E448" s="156"/>
+      <c r="F448" s="36"/>
+    </row>
+    <row r="449" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E449" s="156"/>
+      <c r="F449" s="36"/>
+    </row>
+    <row r="450" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E450" s="156"/>
+      <c r="F450" s="36"/>
+    </row>
+    <row r="451" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E451" s="156"/>
+      <c r="F451" s="36"/>
+    </row>
+    <row r="452" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E452" s="156"/>
+      <c r="F452" s="36"/>
+    </row>
+    <row r="453" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E453" s="156"/>
+      <c r="F453" s="36"/>
+    </row>
+    <row r="454" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E454" s="156"/>
+      <c r="F454" s="36"/>
+    </row>
+    <row r="455" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E455" s="156"/>
+      <c r="F455" s="36"/>
+    </row>
+    <row r="456" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E456" s="156"/>
+      <c r="F456" s="36"/>
+    </row>
+    <row r="457" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E457" s="156"/>
+      <c r="F457" s="36"/>
+    </row>
+    <row r="458" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E458" s="156"/>
+      <c r="F458" s="36"/>
+    </row>
+    <row r="459" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E459" s="156"/>
+      <c r="F459" s="36"/>
+    </row>
+    <row r="460" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E460" s="156"/>
+      <c r="F460" s="36"/>
+    </row>
+    <row r="461" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E461" s="156"/>
+      <c r="F461" s="36"/>
+    </row>
+    <row r="462" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E462" s="156"/>
+      <c r="F462" s="36"/>
+    </row>
+    <row r="463" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E463" s="156"/>
+      <c r="F463" s="36"/>
+    </row>
+    <row r="464" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E464" s="156"/>
+      <c r="F464" s="36"/>
+    </row>
+    <row r="465" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E465" s="156"/>
+      <c r="F465" s="36"/>
+    </row>
+    <row r="466" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E466" s="156"/>
+      <c r="F466" s="36"/>
+    </row>
+    <row r="467" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E467" s="156"/>
+      <c r="F467" s="36"/>
+    </row>
+    <row r="468" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E468" s="156"/>
+      <c r="F468" s="36"/>
+    </row>
+    <row r="469" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E469" s="156"/>
+      <c r="F469" s="36"/>
+    </row>
+    <row r="470" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E470" s="156"/>
+      <c r="F470" s="36"/>
+    </row>
+    <row r="471" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E471" s="156"/>
+      <c r="F471" s="36"/>
+    </row>
+    <row r="472" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E472" s="156"/>
+      <c r="F472" s="36"/>
+    </row>
+    <row r="473" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E473" s="156"/>
+      <c r="F473" s="36"/>
+    </row>
+    <row r="474" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E474" s="156"/>
+      <c r="F474" s="36"/>
+    </row>
+    <row r="475" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E475" s="156"/>
+      <c r="F475" s="36"/>
+    </row>
+    <row r="476" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E476" s="156"/>
+      <c r="F476" s="36"/>
+    </row>
+    <row r="477" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E477" s="156"/>
+      <c r="F477" s="36"/>
+    </row>
+    <row r="478" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E478" s="156"/>
+      <c r="F478" s="36"/>
+    </row>
+    <row r="479" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E479" s="156"/>
+      <c r="F479" s="36"/>
+    </row>
+    <row r="480" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E480" s="156"/>
+      <c r="F480" s="36"/>
+    </row>
+    <row r="481" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E481" s="156"/>
+      <c r="F481" s="36"/>
+    </row>
+    <row r="482" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E482" s="156"/>
+      <c r="F482" s="36"/>
+    </row>
+    <row r="483" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E483" s="156"/>
+      <c r="F483" s="36"/>
+    </row>
+    <row r="484" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E484" s="156"/>
+      <c r="F484" s="36"/>
+    </row>
+    <row r="485" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E485" s="156"/>
+      <c r="F485" s="36"/>
+    </row>
+    <row r="486" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E486" s="156"/>
+      <c r="F486" s="36"/>
+    </row>
+    <row r="487" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E487" s="156"/>
+      <c r="F487" s="36"/>
+    </row>
+    <row r="488" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E488" s="156"/>
+      <c r="F488" s="36"/>
+    </row>
+    <row r="489" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E489" s="156"/>
+      <c r="F489" s="36"/>
+    </row>
+    <row r="490" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E490" s="156"/>
+      <c r="F490" s="36"/>
+    </row>
+    <row r="491" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E491" s="156"/>
+      <c r="F491" s="36"/>
+    </row>
+    <row r="492" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E492" s="156"/>
+      <c r="F492" s="36"/>
+    </row>
+    <row r="493" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E493" s="156"/>
+      <c r="F493" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B30:B50"/>
+    <mergeCell ref="B51:B83"/>
+    <mergeCell ref="B84:B90"/>
     <mergeCell ref="B12:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A1:E1"/>
